--- a/server/FileUpload/KOOL.xlsx
+++ b/server/FileUpload/KOOL.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Overview" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Player Data" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Question Data" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>bocauhoiMOI</t>
   </si>
@@ -22,7 +24,7 @@
     <t>Played on</t>
   </si>
   <si>
-    <t>28 Dec 2021, 18:33:12</t>
+    <t>29 Dec 2021, 23:10:22</t>
   </si>
   <si>
     <t>Played with</t>
@@ -37,23 +39,92 @@
     <t>bokool789</t>
   </si>
   <si>
+    <t>Game mode</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
     <t>Overall Performance</t>
   </si>
   <si>
     <t>Total correct answers (%)</t>
   </si>
   <si>
+    <t>100.00%</t>
+  </si>
+  <si>
     <t>Total incorrect answers (%)</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
     <t>Average score (points)</t>
+  </si>
+  <si>
+    <t>362.00 points</t>
+  </si>
+  <si>
+    <t>View Player Data</t>
+  </si>
+  <si>
+    <t>View Question Data</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Player Name</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Unanswered</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Question Accuracy</t>
+  </si>
+  <si>
+    <t>Average Time per Question (s)</t>
+  </si>
+  <si>
+    <t>Có bao nhiêu anh em siêu nhân trong bộ phim 5 ae siêu nhân</t>
+  </si>
+  <si>
+    <t>Single Choice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -83,8 +154,41 @@
       <sz val="12"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="7232B1"/>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="7232B1"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="7B3F04"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFF"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +208,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="F4F4F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E7DDF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9F7ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCDBE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E5E5E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="864CBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -148,6 +282,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,9 +670,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="90"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -552,9 +734,23 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
+    <row r="5" ht="26" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
     <row r="6" ht="26" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -564,28 +760,244 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="26" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" ht="26" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="26" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="90"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12">
+        <v>362</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="90"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <v>11.38</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" ht="23" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="21">
+        <v>11.38</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
